--- a/Escolaridad_Municipio.xlsx
+++ b/Escolaridad_Municipio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\misDocs\2025\INEGI\QGIS\Plantilla_3_34_final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\misDocs\2025\INEGI\QGIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23E66C8-84F6-4D5A-8203-DC2CE90B8A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753099B4-EBDC-4569-B855-40ED7D824D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15495" yWindow="1170" windowWidth="13200" windowHeight="14475" xr2:uid="{6DBC8393-4D26-4DC0-AF33-FAB7DC3BCE77}"/>
+    <workbookView xWindow="21210" yWindow="2190" windowWidth="13200" windowHeight="14475" xr2:uid="{6DBC8393-4D26-4DC0-AF33-FAB7DC3BCE77}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -7873,7 +7873,7 @@
   <dimension ref="A1:C2470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Escolaridad_Municipio.xlsx
+++ b/Escolaridad_Municipio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\misDocs\2025\INEGI\QGIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753099B4-EBDC-4569-B855-40ED7D824D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CE0863-CE86-416E-89CE-9FBF3296E0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21210" yWindow="2190" windowWidth="13200" windowHeight="14475" xr2:uid="{6DBC8393-4D26-4DC0-AF33-FAB7DC3BCE77}"/>
+    <workbookView xWindow="34200" yWindow="750" windowWidth="13200" windowHeight="14475" activeTab="1" xr2:uid="{6DBC8393-4D26-4DC0-AF33-FAB7DC3BCE77}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4948" uniqueCount="2483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4950" uniqueCount="2485">
   <si>
     <t>Clase</t>
   </si>
@@ -7489,6 +7489,12 @@
   </si>
   <si>
     <t>CVEGEO</t>
+  </si>
+  <si>
+    <t>TituloSimbologia</t>
+  </si>
+  <si>
+    <t>% de personas con escolaridad</t>
   </si>
 </sst>
 </file>
@@ -7872,7 +7878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6582CB-5724-4CE7-8563-0E4522435A6A}">
   <dimension ref="A1:C2470"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2435" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -35064,16 +35070,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26803F04-B8E9-468C-AE87-B46FF0510F7B}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -35108,6 +35114,14 @@
         <v>2481</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2484</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
